--- a/src/test/resources/testdata/DataLoader/Excel/AD.xlsx
+++ b/src/test/resources/testdata/DataLoader/Excel/AD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DB74E-E6A2-4603-9933-C7A909C91219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E9F429-B8DC-413B-8D54-CF599105B709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="25" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="887">
   <si>
     <t>Source ID</t>
   </si>
@@ -2761,25 +2761,25 @@
     <t>MyWizard_Phoenix_Dev_lx</t>
   </si>
   <si>
-    <t>Bug_ADEntity_Automation</t>
-  </si>
-  <si>
-    <t>A3452 23 Sep 21</t>
-  </si>
-  <si>
-    <t>Release_ADEntity_Automation</t>
-  </si>
-  <si>
-    <t>Requirement_ADEntity_Automation</t>
-  </si>
-  <si>
-    <t>738976 7 Sept 20</t>
-  </si>
-  <si>
-    <t>Test_ADEntity_Automation</t>
-  </si>
-  <si>
-    <t>TestResult_ADEntity_Automation</t>
+    <t>Bug_Automation</t>
+  </si>
+  <si>
+    <t>Sprint_Automation</t>
+  </si>
+  <si>
+    <t>Release_Automation</t>
+  </si>
+  <si>
+    <t>Requirement_Automation</t>
+  </si>
+  <si>
+    <t>Test_Automation</t>
+  </si>
+  <si>
+    <t>TestResult_Automation</t>
+  </si>
+  <si>
+    <t>Sprint-DevelopmentSprint</t>
   </si>
 </sst>
 </file>
@@ -9675,8 +9675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684D2399-869E-44E0-8E14-6D7E77E7CC33}">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="2" spans="1:56" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="n">
-        <v>1.5148621E7</v>
+        <v>9.7347223E7</v>
       </c>
       <c r="B2" s="124" t="s">
         <v>877</v>
@@ -9991,10 +9991,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5381D11-A917-4864-895E-70CB2A32099C}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="2" spans="1:42" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="n">
-        <v>1.2158515E7</v>
+        <v>1.3068671E7</v>
       </c>
       <c r="B2" s="125" t="s">
         <v>877</v>
@@ -10227,16 +10227,74 @@
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
     </row>
+    <row r="3" spans="1:42" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="n">
+        <v>1.3068672E7</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>877</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>879</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{B1A4750B-C2CA-442A-A688-24A8D7548AC4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{B1A4750B-C2CA-442A-A688-24A8D7548AC4}">
       <formula1>"Very Low,Low,Medium,High,Very High,Unclassified"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L3:L1048576" xr:uid="{22B4C6F5-5B39-4C6B-8B02-FAB05A130A78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L4:L1048576" xr:uid="{22B4C6F5-5B39-4C6B-8B02-FAB05A130A78}">
       <formula1>"New,Active,Inactive,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{D849C27A-C77C-42A8-A0E3-4935B51F5952}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{D849C27A-C77C-42A8-A0E3-4935B51F5952}">
       <formula1>"Created,Go Live,Withdrawn,Completed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{0217A986-4F5B-418D-BF7A-466169062EAF}">
@@ -10245,9 +10303,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{01C1F4D1-0D9F-4E8C-9240-93E566A7E4C1}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{EB3B91D3-EBAB-452A-AC68-598B54A82DCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10255,8 +10314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9C0C62-AEAD-413D-9619-BF8E2404F1E8}">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10575,7 +10634,7 @@
     </row>
     <row r="2" spans="1:78" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="n">
-        <v>6.8824844E7</v>
+        <v>3.9462171E7</v>
       </c>
       <c r="B2" s="124" t="s">
         <v>877</v>
@@ -10694,7 +10753,7 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10918,13 +10977,13 @@
     </row>
     <row r="2" spans="1:54" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="n">
-        <v>8.5143407E7</v>
+        <v>7.5220043E7</v>
       </c>
       <c r="B2" s="125" t="s">
         <v>877</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
@@ -11088,7 +11147,7 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11280,13 +11339,13 @@
     </row>
     <row r="2" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="n">
-        <v>4.218956E7</v>
+        <v>9.952051E7</v>
       </c>
       <c r="B2" s="124" t="s">
         <v>877</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
@@ -11365,15 +11424,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A584A2479B00A4991626A8445AE5F5C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bc0e00b16e95f2820cbbc0ad3c03492">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="673486b5-591b-41ca-a9c1-26091b0c3bf6" xmlns:ns3="0a4f0a2d-94cf-4297-bd91-d28c9719267c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7909a6bc90ca1b7898615207125b400a" ns2:_="" ns3:_="">
     <xsd:import namespace="673486b5-591b-41ca-a9c1-26091b0c3bf6"/>
@@ -11590,6 +11640,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
   <ds:schemaRefs>
@@ -11609,14 +11668,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{827D85F2-4946-4B36-84AC-740FC90F5D64}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11633,4 +11684,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>